--- a/documentation-generator/vocab_csv/tech.xlsx
+++ b/documentation-generator/vocab_csv/tech.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="296">
   <si>
     <t>Term</t>
   </si>
@@ -232,7 +232,7 @@
     <t>Indicates communication mechanisms used or provided by technology</t>
   </si>
   <si>
-    <t>dpv-tech:CommunicationMechanism</t>
+    <t>tech:CommunicationMechanism</t>
   </si>
   <si>
     <t>hasTRL</t>
@@ -244,7 +244,7 @@
     <t>Indicates technology maturity level</t>
   </si>
   <si>
-    <t>dpv-tech:TechnologyReadinessLevel</t>
+    <t>tech:TechnologyReadinessLevel</t>
   </si>
   <si>
     <t>hasTechnologyActor</t>
@@ -256,7 +256,7 @@
     <t>Indicates an actor associated with technology</t>
   </si>
   <si>
-    <t>dpv-tech:TechnologyActor</t>
+    <t>tech:TechnologyActor</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -274,7 +274,7 @@
     <t>Technology related to copying data</t>
   </si>
   <si>
-    <t>dpv-tech:DataTechnology</t>
+    <t>tech:DataTechnology</t>
   </si>
   <si>
     <t>DataDisclosureTechnology</t>
@@ -358,7 +358,7 @@
     <t>Technology related to security of data</t>
   </si>
   <si>
-    <t>dpv-tech:DataTechnology,dpv-tech:SecurityTechnology</t>
+    <t>tech:DataTechnology,tech:SecurityTechnology</t>
   </si>
   <si>
     <t>DataManagementTechnology</t>
@@ -370,7 +370,7 @@
     <t>Technology related to management of data</t>
   </si>
   <si>
-    <t>dpv-tech:DataTechnology,dpv-tech:ManagementTechnology</t>
+    <t>tech:DataTechnology,tech:ManagementTechnology</t>
   </si>
   <si>
     <t>DataIntermediationTechnology</t>
@@ -400,7 +400,7 @@
     <t>Technology that provides an environment for operations to be executed</t>
   </si>
   <si>
-    <t>dpv-tech:OperationalTechnology</t>
+    <t>tech:OperationalTechnology</t>
   </si>
   <si>
     <t>OperationDevice</t>
@@ -439,7 +439,7 @@
     <t>Privacy Enhancing Technologies (PETs) that provide minimisation or security related to data and privacy</t>
   </si>
   <si>
-    <t>dpv-tech:SecurityTechnology</t>
+    <t>tech:SecurityTechnology</t>
   </si>
   <si>
     <t>Harshvardhan J. Pandit, Julian Flake, Georg P Krog, Paul Ryan</t>
@@ -490,7 +490,7 @@
     <t>Technology related to management of security</t>
   </si>
   <si>
-    <t>dpv-tech:SecurityTechnology,dpv-tech:ManagementTechnology</t>
+    <t>tech:SecurityTechnology,tech:ManagementTechnology</t>
   </si>
   <si>
     <t>Forms of Surveillance with technologies</t>
@@ -505,7 +505,7 @@
     <t>Surveillance that is overt i.e. visible or apparent or explicit</t>
   </si>
   <si>
-    <t>dpv-tech:SurveillanceTechnology</t>
+    <t>tech:SurveillanceTechnology</t>
   </si>
   <si>
     <t>For example, a CCTV with a notice</t>
@@ -535,7 +535,7 @@
     <t>Technology that can be used a fixed numner of times</t>
   </si>
   <si>
-    <t>dpv-tech:TechnologyProvisionMethod</t>
+    <t>tech:TechnologyProvisionMethod</t>
   </si>
   <si>
     <t>Subscription</t>
@@ -640,9 +640,6 @@
     <t>Actor that designs Technology</t>
   </si>
   <si>
-    <t>tech:TechnologyActor</t>
-  </si>
-  <si>
     <t>DGA 26.3</t>
   </si>
   <si>
@@ -709,10 +706,10 @@
     <t>Indicates technology provider</t>
   </si>
   <si>
-    <t>dpv-tech:TechnologyProvider</t>
-  </si>
-  <si>
-    <t>dpv-tech:hasTechnologyActor</t>
+    <t>tech:TechnologyProvider</t>
+  </si>
+  <si>
+    <t>tech:hasTechnologyActor</t>
   </si>
   <si>
     <t>hasDeveloper</t>
@@ -724,7 +721,7 @@
     <t>Indicates technology developer</t>
   </si>
   <si>
-    <t>dpv-tech:TechnologyDeveloper</t>
+    <t>tech:TechnologyDeveloper</t>
   </si>
   <si>
     <t>hasUser</t>
@@ -736,7 +733,7 @@
     <t>Indicates technology user</t>
   </si>
   <si>
-    <t>dpv-tech:TechnologyUser</t>
+    <t>tech:TechnologyUser</t>
   </si>
   <si>
     <t>hasSubject</t>
@@ -748,7 +745,7 @@
     <t>Indicates technology subject</t>
   </si>
   <si>
-    <t>dpv-tech:TechnologySubject</t>
+    <t>tech:TechnologySubject</t>
   </si>
   <si>
     <t>How technology communicates</t>
@@ -772,7 +769,7 @@
     <t>Technology utilising local networking communication</t>
   </si>
   <si>
-    <t>dpv-tech:Networking</t>
+    <t>tech:Networking</t>
   </si>
   <si>
     <t>InternetCommunication</t>
@@ -829,7 +826,7 @@
     <t>A database, database management system (DBMS), or application database</t>
   </si>
   <si>
-    <t>dpv-tech:DataStorageTechnology</t>
+    <t>tech:DataStorageTechnology</t>
   </si>
   <si>
     <t>Cookie</t>
@@ -838,7 +835,7 @@
     <t>A HTTP or web or internet cookie</t>
   </si>
   <si>
-    <t>dpv-tech:LocalStorage</t>
+    <t>tech:LocalStorage</t>
   </si>
   <si>
     <t>FileSystem</t>
@@ -859,7 +856,7 @@
     <t>A computing or digital program on a smartphone device</t>
   </si>
   <si>
-    <t>dpv-tech:Application</t>
+    <t>tech:Application</t>
   </si>
   <si>
     <t>PersonalInformationManagementSystem</t>
@@ -871,7 +868,7 @@
     <t>A PIMS is a system that helps to give individuals more control over their personal data by managing their personal data in secure, on-premises or online storage systems and sharing it when and with whomever they choose</t>
   </si>
   <si>
-    <t>dpv-tech:DataManagementTechnology</t>
+    <t>tech:DataManagementTechnology</t>
   </si>
   <si>
     <t>IdentityManagementTechnology</t>
@@ -883,7 +880,7 @@
     <t>Technologies providing identity provision, verification, management, and governance</t>
   </si>
   <si>
-    <t>dpv-tech:IdentityTechnology,dpv-tech:ManagementTechnology</t>
+    <t>tech:IdentityTechnology,tech:ManagementTechnology</t>
   </si>
   <si>
     <t>IdentityWallet</t>
@@ -895,7 +892,7 @@
     <t xml:space="preserve">product and service that allows the user to store identity data, credentials and attributes linked to her/his identity, to provide them to relying parties on request and to use them for authentication, online and offline, and to create qualified electronic signatures and seals </t>
   </si>
   <si>
-    <t>dpv-tech:IdentityManagementTechnology,dpv-tech:DataStorageTechnology</t>
+    <t>tech:IdentityManagementTechnology,tech:DataStorageTechnology</t>
   </si>
   <si>
     <t>k-anonymity</t>
@@ -1193,16 +1190,16 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2265,22 +2262,22 @@
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>226</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>227</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
@@ -2317,22 +2314,22 @@
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>231</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>232</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
@@ -2369,22 +2366,22 @@
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>235</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>236</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -2421,22 +2418,22 @@
     </row>
     <row r="5">
       <c r="A5" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>239</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>240</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
@@ -2620,10 +2617,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2638,13 +2635,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="22" t="s">
@@ -2688,16 +2685,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>69</v>
@@ -2740,16 +2737,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>69</v>
@@ -2792,16 +2789,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>69</v>
@@ -2844,16 +2841,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>258</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>69</v>
@@ -2896,16 +2893,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>261</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>69</v>
@@ -2948,13 +2945,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="22" t="s">
@@ -3100,10 +3097,10 @@
     </row>
     <row r="2">
       <c r="A2" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="33"/>
@@ -3111,16 +3108,16 @@
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>267</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>268</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -3161,16 +3158,16 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="35" t="s">
         <v>270</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>271</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -3211,16 +3208,16 @@
     </row>
     <row r="5">
       <c r="A5" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="C5" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>274</v>
-      </c>
       <c r="D5" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -3261,16 +3258,16 @@
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="C6" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>277</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>278</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -3311,16 +3308,16 @@
     </row>
     <row r="7">
       <c r="A7" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="C7" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>281</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>282</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -3361,16 +3358,16 @@
     </row>
     <row r="8">
       <c r="A8" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="C8" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="D8" s="35" t="s">
         <v>285</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>286</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -3411,16 +3408,16 @@
     </row>
     <row r="9">
       <c r="A9" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="C9" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="35" t="s">
         <v>289</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>290</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -3563,27 +3560,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="J2" s="37" t="s">
         <v>291</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="J2" s="38" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>293</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>295</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="6">
@@ -3918,49 +3915,49 @@
       <c r="A81" s="34"/>
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
-      <c r="D81" s="35"/>
+      <c r="D81" s="38"/>
       <c r="K81" s="8"/>
     </row>
     <row r="82">
       <c r="A82" s="34"/>
       <c r="B82" s="34"/>
       <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="D82" s="38"/>
       <c r="K82" s="8"/>
     </row>
     <row r="83">
       <c r="A83" s="34"/>
       <c r="B83" s="34"/>
       <c r="C83" s="34"/>
-      <c r="D83" s="35"/>
+      <c r="D83" s="38"/>
       <c r="K83" s="8"/>
     </row>
     <row r="84">
       <c r="A84" s="34"/>
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
-      <c r="D84" s="35"/>
+      <c r="D84" s="38"/>
       <c r="K84" s="8"/>
     </row>
     <row r="85">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
-      <c r="D85" s="35"/>
+      <c r="D85" s="38"/>
       <c r="K85" s="8"/>
     </row>
     <row r="86">
       <c r="A86" s="34"/>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
-      <c r="D86" s="37"/>
+      <c r="D86" s="35"/>
       <c r="K86" s="8"/>
     </row>
     <row r="87">
       <c r="A87" s="34"/>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
-      <c r="D87" s="35"/>
+      <c r="D87" s="38"/>
       <c r="K87" s="8"/>
     </row>
   </sheetData>
@@ -7008,7 +7005,7 @@
         <v>204</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>47</v>
@@ -7018,7 +7015,7 @@
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
@@ -7046,16 +7043,16 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>209</v>
-      </c>
       <c r="D9" s="20" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>47</v>
@@ -7065,7 +7062,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -7093,16 +7090,16 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="C10" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>212</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>47</v>
@@ -7112,7 +7109,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -7140,16 +7137,16 @@
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>215</v>
-      </c>
       <c r="D11" s="20" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>47</v>
@@ -7159,7 +7156,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -7187,16 +7184,16 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>218</v>
-      </c>
       <c r="D12" s="20" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>47</v>
@@ -7206,7 +7203,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
@@ -7234,16 +7231,16 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>221</v>
-      </c>
       <c r="D13" s="20" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>47</v>
@@ -7253,7 +7250,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -7281,16 +7278,16 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="C14" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>224</v>
-      </c>
       <c r="D14" s="20" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>47</v>
@@ -7300,7 +7297,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
